--- a/modules/trial_area/src/templates/template_restatement.xlsx
+++ b/modules/trial_area/src/templates/template_restatement.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omelchuk-ev\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\trial_area\modules\mdol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omelchuk-ev\AppData\Roaming\QGIS\QGIS3\profiles\default\python\plugins\trial_area\modules\trial_area\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="0" windowWidth="27690" windowHeight="12915"/>
+    <workbookView xWindow="22200" yWindow="0" windowWidth="27690" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Титульный лист" sheetId="2" r:id="rId1"/>
+    <sheet name="Перечет" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Перечёт растущих и сухостойных деревьев</t>
   </si>
@@ -50,12 +51,132 @@
   <si>
     <t>стр. 2</t>
   </si>
+  <si>
+    <t>Карточка пробной площади №</t>
+  </si>
+  <si>
+    <t>тренировочная</t>
+  </si>
+  <si>
+    <t>Лесхоз</t>
+  </si>
+  <si>
+    <t>Лесничество</t>
+  </si>
+  <si>
+    <t>Квартал</t>
+  </si>
+  <si>
+    <t>Выдел</t>
+  </si>
+  <si>
+    <t>ГПЛХО</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Пл. пробы</t>
+  </si>
+  <si>
+    <t>Таксационная характеристика</t>
+  </si>
+  <si>
+    <t>(в переводе на 1 га)</t>
+  </si>
+  <si>
+    <t>Ярус</t>
+  </si>
+  <si>
+    <t>Элемент леса</t>
+  </si>
+  <si>
+    <t>Коэффиц. леса</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Средняя высота, м.</t>
+  </si>
+  <si>
+    <t>Диаметр, см.</t>
+  </si>
+  <si>
+    <t>Сумма пл. сечения, м2</t>
+  </si>
+  <si>
+    <t>Полнота</t>
+  </si>
+  <si>
+    <t>Класс бонитета</t>
+  </si>
+  <si>
+    <t>Тип леса ТУМ</t>
+  </si>
+  <si>
+    <t>Запас, м3</t>
+  </si>
+  <si>
+    <t>сухостойных</t>
+  </si>
+  <si>
+    <t>захламлен.</t>
+  </si>
+  <si>
+    <t>раст. дерев</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>в т.ч. усых.</t>
+  </si>
+  <si>
+    <t>общ.</t>
+  </si>
+  <si>
+    <t>в т.ч. ликв.</t>
+  </si>
+  <si>
+    <t>% ввыхода деловой древесины</t>
+  </si>
+  <si>
+    <t>Глазомерная</t>
+  </si>
+  <si>
+    <t>Вычисленная</t>
+  </si>
+  <si>
+    <t>Подрост</t>
+  </si>
+  <si>
+    <t>Подлесок</t>
+  </si>
+  <si>
+    <t>Покров</t>
+  </si>
+  <si>
+    <t>Почва</t>
+  </si>
+  <si>
+    <t>Полож. и рельеф</t>
+  </si>
+  <si>
+    <t>Особен.древостоя</t>
+  </si>
+  <si>
+    <t>Измерения провёл</t>
+  </si>
+  <si>
+    <t>га</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +221,22 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -169,11 +306,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -191,8 +504,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -210,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +892,936 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:R49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="5.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="M11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+    </row>
+    <row r="16" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="37"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="47"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="40"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="43"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="43"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="43"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="43"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="47"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="15"/>
+      <c r="L46" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="15"/>
+      <c r="L47" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="15"/>
+      <c r="L48" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+    </row>
+    <row r="49" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L49" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="54">
+        <f ca="1">TODAY()</f>
+        <v>44081</v>
+      </c>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="P19:R22"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A35:R35"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A14:R14"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="J5:R5"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="M11:N11"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="AL29" sqref="AL29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,107 +1853,107 @@
       <c r="AL1" s="4"/>
     </row>
     <row r="2" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="14" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="13" t="s">
+      <c r="U2" s="49"/>
+      <c r="V2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="14" t="s">
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="14"/>
+      <c r="AP2" s="49"/>
     </row>
     <row r="3" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="15"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="17"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="52"/>
     </row>
     <row r="4" spans="1:42" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -687,7 +2014,7 @@
       <c r="U4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
+      <c r="V4" s="53"/>
       <c r="W4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3105,7 +4432,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E35" s="12" t="str">
+      <c r="E35" s="11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -3121,7 +4448,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I35" s="12" t="str">
+      <c r="I35" s="11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -3137,7 +4464,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M35" s="12" t="str">
+      <c r="M35" s="11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -3153,7 +4480,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q35" s="12" t="str">
+      <c r="Q35" s="11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -3169,7 +4496,7 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="U35" s="12" t="str">
+      <c r="U35" s="11" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -3177,7 +4504,7 @@
         <v>6</v>
       </c>
       <c r="W35" s="10" t="str">
-        <f t="shared" ref="W35:AP35" si="11">IF(SUM(W5:W34)=0,"",SUM(W5:W34))</f>
+        <f t="shared" ref="W35:AO35" si="11">IF(SUM(W5:W34)=0,"",SUM(W5:W34))</f>
         <v/>
       </c>
       <c r="X35" s="10" t="str">
@@ -3188,7 +4515,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Z35" s="12" t="str">
+      <c r="Z35" s="11" t="str">
         <f t="shared" ref="Z35" si="12">IF(SUM(Z5:Z34)=0,"",SUM(Z5:Z34))</f>
         <v/>
       </c>
@@ -3204,7 +4531,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AD35" s="12" t="str">
+      <c r="AD35" s="11" t="str">
         <f t="shared" ref="AD35" si="13">IF(SUM(AD5:AD34)=0,"",SUM(AD5:AD34))</f>
         <v/>
       </c>
@@ -3220,7 +4547,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AH35" s="12" t="str">
+      <c r="AH35" s="11" t="str">
         <f>IF(SUM(AH5:AH34)=0,"",SUM(AH5:AH34))</f>
         <v/>
       </c>
@@ -3236,7 +4563,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AL35" s="12" t="str">
+      <c r="AL35" s="11" t="str">
         <f>IF(SUM(AL5:AL34)=0,"",SUM(AL5:AL34))</f>
         <v/>
       </c>
@@ -3252,7 +4579,7 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP35" s="12" t="str">
+      <c r="AP35" s="11" t="str">
         <f>IF(SUM(AP5:AP34)=0,"",SUM(AP5:AP34))</f>
         <v/>
       </c>
@@ -3261,49 +4588,169 @@
       <c r="A36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="12"/>
+      <c r="B36" s="10" t="str">
+        <f>IF(B35&lt;&gt;"",B35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="10" t="str">
+        <f>IF(C35&lt;&gt;"",C35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f>IF(D35&lt;&gt;"",D35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="11" t="str">
+        <f>IF(E35&lt;&gt;"",E35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f>IF(F35&lt;&gt;"",F35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="10" t="str">
+        <f>IF(G35&lt;&gt;"",G35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="H36" s="10" t="str">
+        <f>IF(H35&lt;&gt;"",H35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="11" t="str">
+        <f>IF(I35&lt;&gt;"",I35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="J36" s="10" t="str">
+        <f>IF(J35&lt;&gt;"",J35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="10" t="str">
+        <f>IF(K35&lt;&gt;"",K35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="L36" s="10" t="str">
+        <f>IF(L35&lt;&gt;"",L35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="M36" s="11" t="str">
+        <f>IF(M35&lt;&gt;"",M35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="N36" s="10" t="str">
+        <f>IF(N35&lt;&gt;"",N35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="10" t="str">
+        <f>IF(O35&lt;&gt;"",O35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="10" t="str">
+        <f>IF(P35&lt;&gt;"",P35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="11" t="str">
+        <f>IF(Q35&lt;&gt;"",Q35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="R36" s="10" t="str">
+        <f>IF(R35&lt;&gt;"",R35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="S36" s="10" t="str">
+        <f>IF(S35&lt;&gt;"",S35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="T36" s="10" t="str">
+        <f>IF(T35&lt;&gt;"",T35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="U36" s="11" t="str">
+        <f>IF(U35&lt;&gt;"",U35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
       <c r="V36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W36" s="10"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="12"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="12"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="12"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="12"/>
+      <c r="W36" s="10" t="str">
+        <f>IF(W35&lt;&gt;"",W35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="X36" s="10" t="str">
+        <f>IF(X35&lt;&gt;"",X35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="Y36" s="10" t="str">
+        <f>IF(Y35&lt;&gt;"",Y35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="Z36" s="11" t="str">
+        <f>IF(Z35&lt;&gt;"",Z35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AA36" s="10" t="str">
+        <f>IF(AA35&lt;&gt;"",AA35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="10" t="str">
+        <f>IF(AB35&lt;&gt;"",AB35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AC36" s="10" t="str">
+        <f>IF(AC35&lt;&gt;"",AC35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AD36" s="11" t="str">
+        <f>IF(AD35&lt;&gt;"",AD35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AE36" s="10" t="str">
+        <f>IF(AE35&lt;&gt;"",AE35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AF36" s="10" t="str">
+        <f>IF(AF35&lt;&gt;"",AF35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AG36" s="10" t="str">
+        <f>IF(AG35&lt;&gt;"",AG35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AH36" s="11" t="str">
+        <f>IF(AH35&lt;&gt;"",AH35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AI36" s="10" t="str">
+        <f>IF(AI35&lt;&gt;"",AI35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AJ36" s="10" t="str">
+        <f>IF(AJ35&lt;&gt;"",AJ35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AK36" s="10" t="str">
+        <f>IF(AK35&lt;&gt;"",AK35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AL36" s="11" t="str">
+        <f>IF(AL35&lt;&gt;"",AL35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AM36" s="10" t="str">
+        <f>IF(AM35&lt;&gt;"",AM35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AN36" s="10" t="str">
+        <f>IF(AN35&lt;&gt;"",AN35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AO36" s="10" t="str">
+        <f>IF(AO35&lt;&gt;"",AO35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
+      <c r="AP36" s="11" t="str">
+        <f>IF(AP35&lt;&gt;"",AP35/'Титульный лист'!$O$11,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:42" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
